--- a/document/교육일정.xlsx
+++ b/document/교육일정.xlsx
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다중 쓰레드 프로그래밍, 네트워크 기초, 네트워크 프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스프링 활용 자바 웹 프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>MariaDB로 따라 하며 배우는  SQL 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 쓰레드 프로그래밍, 네트워크 기초, 네트워크 프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +725,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -768,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="46" customHeight="1" x14ac:dyDescent="0.45">
@@ -802,21 +802,21 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="11">
         <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -849,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
         <v>40</v>
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -875,24 +875,24 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>80</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -902,39 +902,39 @@
         <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="2:6" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2">
         <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="11">
         <v>212</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -947,33 +947,33 @@
     </row>
     <row r="17" spans="2:6" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11">
         <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="12"/>
     </row>

--- a/document/교육일정.xlsx
+++ b/document/교육일정.xlsx
@@ -154,11 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터수집, 전처리, 저장, 데이터분석 파이프라인 구축, 
-클라우드 서비스 활용 머신러닝 및 딥러닝 모델 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>웹 애플리케이션 프로젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +177,48 @@
   <si>
     <t>사내 메신저 개발, 
 재고 관리 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>119 출동 데이터 기반 위험 상황 예측, 
+기상청 데이터 기반 날씨 예측, 
+과거 주식 데이터 기반 미래 주식 가격 예측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do it!  자바 완전 정복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>React.js, 스프링 부트, AWS로 배우는 웹 개발 101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧고 굵게 배우는 JSP 웹 프로그래밍과 스프링 프레임워크
+React.js, 스프링 부트, AWS로 배우는 웹 개발 101
+GCP (자체교재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS 기반 AI 애플리케이션 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docker (자체교재)
+AWS 기반 AI 애플리케이션 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do it! HTML+CSS+자바스크립트 웹 표준의 정석
+자바스크립트는 모든 곳에 존재한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MariaDB로 따라 하며 배우는  SQL 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중 쓰레드 프로그래밍, 네트워크 기초, 네트워크 프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,49 +228,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>119 출동 데이터 기반 위험 상황 예측, 
-기상청 데이터 기반 날씨 예측, 
-과거 주식 데이터 기반 미래 주식 가격 예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가상화 시스템, 퍼블릭/프라이빗 클라우드, AWS 클라우드 활용, 도커 컨테이너</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Do it!  자바 완전 정복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>React.js, 스프링 부트, AWS로 배우는 웹 개발 101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짧고 굵게 배우는 JSP 웹 프로그래밍과 스프링 프레임워크
-React.js, 스프링 부트, AWS로 배우는 웹 개발 101
-GCP (자체교재)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWS 기반 AI 애플리케이션 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Docker (자체교재)
-AWS 기반 AI 애플리케이션 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do it! HTML+CSS+자바스크립트 웹 표준의 정석
-자바스크립트는 모든 곳에 존재한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MariaDB로 따라 하며 배우는  SQL 프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다중 쓰레드 프로그래밍, 네트워크 기초, 네트워크 프로그래밍</t>
+    <t>데이터수집, 전처리, 저장, 데이터분석 파이프라인 구축, 
+클라우드 서비스 활용 머신러닝 및 딥러닝 모델 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -768,7 +768,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="46" customHeight="1" x14ac:dyDescent="0.45">
@@ -802,21 +802,21 @@
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11">
         <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -849,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
         <v>40</v>
@@ -858,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -875,7 +875,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -892,7 +892,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -911,7 +911,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
         <v>55</v>
@@ -920,21 +920,21 @@
         <v>27</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D15" s="11">
         <v>212</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="9"/>
     </row>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>45</v>
@@ -959,21 +959,21 @@
         <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="11">
         <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="12"/>
     </row>
